--- a/data-raw/공공데이터포털_선거인수현황.xlsx
+++ b/data-raw/공공데이터포털_선거인수현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\demographics\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC73F3-296C-469C-BC66-EEFF8E046182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C319E-8469-400B-9929-1733898F63B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12705" yWindow="1185" windowWidth="10455" windowHeight="11175" firstSheet="4" activeTab="4" xr2:uid="{4E923035-9521-4CB9-A0E2-7C1942FD5194}"/>
+    <workbookView xWindow="-19665" yWindow="675" windowWidth="19050" windowHeight="11175" firstSheet="6" activeTab="8" xr2:uid="{4E923035-9521-4CB9-A0E2-7C1942FD5194}"/>
   </bookViews>
   <sheets>
     <sheet name="getCtpvElcntInfoInqire" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="getVtdsElcntInfoInqire" sheetId="4" r:id="rId4"/>
     <sheet name="getElpcElcntInfoInqire" sheetId="5" r:id="rId5"/>
     <sheet name="getElpcElcntInfoInqire_original" sheetId="6" r:id="rId6"/>
+    <sheet name="-" sheetId="7" r:id="rId7"/>
+    <sheet name="ErVotingSttusInfoInqireService" sheetId="8" r:id="rId8"/>
+    <sheet name="getCommonGusigunCodeList" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
   <si>
     <t>num</t>
   </si>
@@ -237,13 +240,55 @@
   </si>
   <si>
     <t>선거구별 선거인수</t>
+  </si>
+  <si>
+    <t>erVotingDiv</t>
+  </si>
+  <si>
+    <t>사전투표구분</t>
+  </si>
+  <si>
+    <t>votersCnt</t>
+  </si>
+  <si>
+    <t>선거인수</t>
+  </si>
+  <si>
+    <t>erVotingCnt</t>
+  </si>
+  <si>
+    <t>사전투표자수</t>
+  </si>
+  <si>
+    <t>erTurnout</t>
+  </si>
+  <si>
+    <t>사전투표율</t>
+  </si>
+  <si>
+    <t>sortOrd</t>
+  </si>
+  <si>
+    <t>순서</t>
+  </si>
+  <si>
+    <t>사전투표 정보 조회</t>
+  </si>
+  <si>
+    <t>wOrder</t>
+  </si>
+  <si>
+    <t>상위시도명</t>
+  </si>
+  <si>
+    <t>구시군코드 조회</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +309,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E4966A-F979-43FA-83D1-9E4315F2C54A}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2232,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2492,4 +2548,250 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462EBDF9-0C41-4831-A985-5F5FC9EE9880}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2923C4-29DA-4164-855B-A3C5D925B090}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC436FD-10B2-4E4B-ADA6-6068D61C55B7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.4140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>